--- a/Documents/PredictorScreeningTable.xlsx
+++ b/Documents/PredictorScreeningTable.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42A3E1C-3578-7546-AB57-AFFECD320BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91E3E6-D500-A84C-8EA2-4DB66D590ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41140" yWindow="3680" windowWidth="20680" windowHeight="18880" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
+    <workbookView xWindow="-38400" yWindow="-6020" windowWidth="21560" windowHeight="21100" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
   <si>
     <t>Variable</t>
   </si>
@@ -319,15 +319,6 @@
     <t>Soil variables</t>
   </si>
   <si>
-    <t>removed - initial screening showed strong correlation (r&gt;0.75) with DD_0</t>
-  </si>
-  <si>
-    <t>removed - initial screening showed strong correlation (r&gt;0.75) with ADI</t>
-  </si>
-  <si>
-    <t>removed - initial screening showed strong correlation (r&gt;0.75) with TD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Higher relative humidity may limit seasonal moisture stress. </t>
   </si>
   <si>
@@ -346,9 +337,6 @@
     <t>growing season precipitation to degree day ratio: (GSP*DD5)/1000</t>
   </si>
   <si>
-    <t>removed during final multicollinearity testing  because of high VIF score</t>
-  </si>
-  <si>
     <t>TPI3</t>
   </si>
   <si>
@@ -356,6 +344,60 @@
   </si>
   <si>
     <t>Findings from previous research</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Seasonality</t>
+  </si>
+  <si>
+    <t>Preference order</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Rehfeldt et al. (2015).</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Rehfeldt et al. (2009).</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Rehfeldt et al. (2015) and Worrall et al. (2013)</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Rehfeldt et al. (2009), Worrall et al. (2013), and Greer et al. (2016).</t>
+  </si>
+  <si>
+    <t>Idenified as important predictor by Worrall et al. (2013)</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Worrall et al. (2013) and Greer et al. (2016).</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Worrall et al. (2013).</t>
+  </si>
+  <si>
+    <t>Identified as important predictor by Rehfeldt et al. (2009) and (2015).</t>
+  </si>
+  <si>
+    <t>Group preference order</t>
+  </si>
+  <si>
+    <t>Temperature-precip</t>
+  </si>
+  <si>
+    <t>removed - initial screening showed strong correlation (r≥0.75) with ADI</t>
+  </si>
+  <si>
+    <t>removed - initial screening showed strong correlation (r≥0.75) with TD</t>
+  </si>
+  <si>
+    <t>removed - initial screening showed strong correlation (r≥0.75) with DD_0</t>
   </si>
 </sst>
 </file>
@@ -423,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,27 +487,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,570 +829,920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5EC75-8A6B-F240-9538-D6820B489B90}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
-    <col min="2" max="3" width="24.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="13"/>
-    <col min="5" max="5" width="35.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="4" width="24.6640625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="10"/>
+    <col min="7" max="7" width="11.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="34">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="51">
+      <c r="A1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34">
+      <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>28</v>
+      </c>
+      <c r="G3" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="18">
+        <v>17</v>
+      </c>
+      <c r="G4" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34">
+      <c r="A5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="18">
+        <v>11</v>
+      </c>
+      <c r="G5" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17">
+      <c r="A6" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="F6" s="18">
+        <v>15</v>
+      </c>
+      <c r="G6" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34">
+      <c r="A7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="18">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34">
+      <c r="A8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="F8" s="18">
+        <v>16</v>
+      </c>
+      <c r="G8" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34">
+      <c r="A9" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="F9" s="18">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="68">
+      <c r="A10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34">
+      <c r="A11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="F11" s="18">
+        <v>33</v>
+      </c>
+      <c r="G11" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34">
+      <c r="A12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="F12" s="18">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34">
+      <c r="A13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F13" s="18">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34">
+      <c r="A14" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>30</v>
+      </c>
+      <c r="G14" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34">
+      <c r="A15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="F15" s="18">
+        <v>31</v>
+      </c>
+      <c r="G15" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="F16" s="18">
+        <v>8</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51">
+      <c r="A17" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="F17" s="18">
+        <v>5</v>
+      </c>
+      <c r="G17" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="14">
-        <v>0.478837777197133</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="H17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="51">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="51">
+      <c r="A18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34">
+      <c r="A19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="F19" s="18">
+        <v>22</v>
+      </c>
+      <c r="G19" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34">
+      <c r="A20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="F20" s="18">
+        <v>20</v>
+      </c>
+      <c r="G20" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51">
+      <c r="A21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="18">
+        <v>9</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34">
+      <c r="A22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>29</v>
+      </c>
+      <c r="G22" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="68">
+      <c r="A23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="F23" s="18">
+        <v>13</v>
+      </c>
+      <c r="G23" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="34">
+      <c r="A24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17">
+        <v>0.34</v>
+      </c>
+      <c r="F24" s="18">
+        <v>14</v>
+      </c>
+      <c r="G24" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34">
+      <c r="A25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17">
+        <v>0.17</v>
+      </c>
+      <c r="F25" s="18">
+        <v>32</v>
+      </c>
+      <c r="G25" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34">
+      <c r="A26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F26" s="18">
+        <v>19</v>
+      </c>
+      <c r="G26" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="51">
+      <c r="A27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="F27" s="18">
+        <v>7</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="51">
+      <c r="A28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34">
+      <c r="A29" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="F29" s="18">
+        <v>34</v>
+      </c>
+      <c r="G29" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34">
+      <c r="A30" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="F30" s="18">
+        <v>27</v>
+      </c>
+      <c r="G30" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34">
+      <c r="A31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="F31" s="18">
+        <v>24</v>
+      </c>
+      <c r="G31" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34">
+      <c r="A32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="F32" s="18">
+        <v>25</v>
+      </c>
+      <c r="G32" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="34">
+      <c r="A33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17">
+        <v>0.23</v>
+      </c>
+      <c r="F33" s="18">
+        <v>23</v>
+      </c>
+      <c r="G33" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="68">
+      <c r="A34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="F34" s="18">
+        <v>10</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="68">
+      <c r="A35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="F35" s="18">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="14">
-        <v>0.46377304566077299</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14">
-        <v>0.46267797836513802</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14">
-        <v>0.449723076789242</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="14">
-        <v>0.40029232538646098</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="14">
-        <v>0.36317859628851701</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14">
-        <v>0.34758508503327901</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="14">
-        <v>0.34581813027006397</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34">
-      <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="14">
-        <v>0.34303178034864301</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="14">
-        <v>0.31840937300042099</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14">
-        <v>0.313760707284508</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="14">
-        <v>0.31238049920190902</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="14">
-        <v>0.29730448236631102</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34">
-      <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="14">
-        <v>0.279032481588398</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="34">
-      <c r="A16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="14">
-        <v>0.27739410965401801</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="34">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14">
-        <v>0.239054744468533</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="34">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14">
-        <v>0.23380178001900601</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="14">
-        <v>0.23028077097414901</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34">
-      <c r="A20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="14">
-        <v>0.22964388902076999</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="34">
-      <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="14">
-        <v>0.22762307436509499</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="34">
-      <c r="A22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="14">
-        <v>0.219887886574168</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34">
-      <c r="A23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="14">
-        <v>0.2192906631829</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="34">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="14">
-        <v>0.214863642323839</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="34">
-      <c r="A25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="14">
-        <v>0.209535702471255</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="34">
-      <c r="A26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0.20802863664044</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="34">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="14">
-        <v>0.204430814492605</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="34">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="14">
-        <v>0.20298255901061099</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="34">
-      <c r="A29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="14">
-        <v>0.20272479344265201</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="34">
-      <c r="A30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="14">
-        <v>0.19909133025537301</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="34">
-      <c r="A31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="14">
-        <v>0.19117755845680701</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="34">
-      <c r="A32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="14">
-        <v>0.18253738992913801</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="34">
-      <c r="A33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="14">
-        <v>0.16647271739771899</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="34">
-      <c r="A34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="14">
-        <v>0.160540491760961</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="34">
-      <c r="A35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="14">
-        <v>0.121355975004587</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="34">
-      <c r="A36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="14">
-        <v>9.0436553641992004E-2</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
-    <sortCondition descending="1" ref="D2:D36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
+    <sortCondition ref="B2:B35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1377,14 +1775,14 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="34">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1395,7 +1793,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1406,44 +1804,44 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
@@ -1479,11 +1877,11 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" s="1" t="s">
@@ -1493,15 +1891,15 @@
         <v>76</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="51" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>82</v>

--- a/Documents/PredictorScreeningTable.xlsx
+++ b/Documents/PredictorScreeningTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91E3E6-D500-A84C-8EA2-4DB66D590ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C306181-1302-434F-9D42-845F9E6B6253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6020" windowWidth="21560" windowHeight="21100" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>Variable</t>
   </si>
@@ -383,9 +383,6 @@
   </si>
   <si>
     <t>Identified as important predictor by Rehfeldt et al. (2009) and (2015).</t>
-  </si>
-  <si>
-    <t>Group preference order</t>
   </si>
   <si>
     <t>Temperature-precip</t>
@@ -829,24 +826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5EC75-8A6B-F240-9538-D6820B489B90}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="4" width="24.6640625" style="10" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="10"/>
-    <col min="7" max="7" width="11.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="35.5" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="51">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="34">
       <c r="A1" s="13" t="s">
         <v>102</v>
       </c>
@@ -866,15 +862,12 @@
         <v>106</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51">
+      <c r="A2" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="51">
-      <c r="A2" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>3</v>
@@ -891,14 +884,11 @@
       <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
-        <v>1</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34">
+    <row r="3" spans="1:7" ht="34">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -915,17 +905,13 @@
       <c r="F3" s="18">
         <v>28</v>
       </c>
-      <c r="G3" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1">
+      <c r="G3" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>10</v>
@@ -940,17 +926,13 @@
       <c r="F4" s="18">
         <v>17</v>
       </c>
-      <c r="G4" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34">
+      <c r="G4" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34">
       <c r="A5" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>11</v>
@@ -965,15 +947,11 @@
       <c r="F5" s="18">
         <v>11</v>
       </c>
-      <c r="G5" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17">
+      <c r="G5" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="15" t="s">
         <v>105</v>
       </c>
@@ -990,15 +968,11 @@
       <c r="F6" s="18">
         <v>15</v>
       </c>
-      <c r="G6" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34">
+    <row r="7" spans="1:7" ht="34">
       <c r="A7" s="15" t="s">
         <v>105</v>
       </c>
@@ -1015,15 +989,11 @@
       <c r="F7" s="18">
         <v>12</v>
       </c>
-      <c r="G7" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34">
+      <c r="G7" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34">
       <c r="A8" s="15" t="s">
         <v>105</v>
       </c>
@@ -1040,15 +1010,11 @@
       <c r="F8" s="18">
         <v>16</v>
       </c>
-      <c r="G8" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34">
+      <c r="G8" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="15" t="s">
         <v>105</v>
       </c>
@@ -1065,15 +1031,11 @@
       <c r="F9" s="18">
         <v>21</v>
       </c>
-      <c r="G9" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="68">
+      <c r="G9" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68">
       <c r="A10" s="15" t="s">
         <v>105</v>
       </c>
@@ -1092,14 +1054,11 @@
       <c r="F10" s="18">
         <v>3</v>
       </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34">
+      <c r="G10" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="34">
       <c r="A11" s="15" t="s">
         <v>105</v>
       </c>
@@ -1116,15 +1075,11 @@
       <c r="F11" s="18">
         <v>33</v>
       </c>
-      <c r="G11" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34">
+      <c r="G11" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34">
       <c r="A12" s="15" t="s">
         <v>103</v>
       </c>
@@ -1141,17 +1096,13 @@
       <c r="F12" s="18">
         <v>26</v>
       </c>
-      <c r="G12" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34">
+      <c r="G12" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34">
       <c r="A13" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>19</v>
@@ -1166,15 +1117,11 @@
       <c r="F13" s="18">
         <v>18</v>
       </c>
-      <c r="G13" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34">
+      <c r="G13" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34">
       <c r="A14" s="15" t="s">
         <v>103</v>
       </c>
@@ -1191,15 +1138,11 @@
       <c r="F14" s="18">
         <v>30</v>
       </c>
-      <c r="G14" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34">
+      <c r="G14" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34">
       <c r="A15" s="15" t="s">
         <v>105</v>
       </c>
@@ -1216,15 +1159,11 @@
       <c r="F15" s="18">
         <v>31</v>
       </c>
-      <c r="G15" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1">
+      <c r="G15" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>104</v>
       </c>
@@ -1243,16 +1182,13 @@
       <c r="F16" s="18">
         <v>8</v>
       </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51">
+    <row r="17" spans="1:7" ht="51">
       <c r="A17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>4</v>
@@ -1269,14 +1205,11 @@
       <c r="F17" s="18">
         <v>5</v>
       </c>
-      <c r="G17" s="16">
-        <v>2</v>
-      </c>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="51">
+    <row r="18" spans="1:7" ht="51">
       <c r="A18" s="15" t="s">
         <v>104</v>
       </c>
@@ -1295,14 +1228,11 @@
       <c r="F18" s="18">
         <v>6</v>
       </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="34">
+      <c r="G18" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34">
       <c r="A19" s="15" t="s">
         <v>103</v>
       </c>
@@ -1319,15 +1249,11 @@
       <c r="F19" s="18">
         <v>22</v>
       </c>
-      <c r="G19" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="34">
+      <c r="G19" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34">
       <c r="A20" s="15" t="s">
         <v>103</v>
       </c>
@@ -1344,15 +1270,11 @@
       <c r="F20" s="18">
         <v>20</v>
       </c>
-      <c r="G20" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="51">
+      <c r="G20" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51">
       <c r="A21" s="15" t="s">
         <v>103</v>
       </c>
@@ -1371,14 +1293,11 @@
       <c r="F21" s="18">
         <v>9</v>
       </c>
-      <c r="G21" s="16">
-        <v>2</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="34">
+      <c r="G21" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34">
       <c r="A22" s="15" t="s">
         <v>105</v>
       </c>
@@ -1395,15 +1314,11 @@
       <c r="F22" s="18">
         <v>29</v>
       </c>
-      <c r="G22" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="68">
+      <c r="G22" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="68">
       <c r="A23" s="15" t="s">
         <v>104</v>
       </c>
@@ -1420,15 +1335,11 @@
       <c r="F23" s="18">
         <v>13</v>
       </c>
-      <c r="G23" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="34">
+      <c r="G23" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34">
       <c r="A24" s="15" t="s">
         <v>104</v>
       </c>
@@ -1445,15 +1356,11 @@
       <c r="F24" s="18">
         <v>14</v>
       </c>
-      <c r="G24" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="34">
+      <c r="G24" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34">
       <c r="A25" s="15" t="s">
         <v>104</v>
       </c>
@@ -1470,15 +1377,11 @@
       <c r="F25" s="18">
         <v>32</v>
       </c>
-      <c r="G25" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="34">
+      <c r="G25" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34">
       <c r="A26" s="15" t="s">
         <v>104</v>
       </c>
@@ -1495,15 +1398,11 @@
       <c r="F26" s="18">
         <v>19</v>
       </c>
-      <c r="G26" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="51">
+      <c r="G26" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51">
       <c r="A27" s="15" t="s">
         <v>104</v>
       </c>
@@ -1522,14 +1421,11 @@
       <c r="F27" s="18">
         <v>7</v>
       </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="51">
+      <c r="G27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51">
       <c r="A28" s="15" t="s">
         <v>104</v>
       </c>
@@ -1548,16 +1444,13 @@
       <c r="F28" s="18">
         <v>2</v>
       </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16" t="s">
+      <c r="G28" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34">
+    <row r="29" spans="1:7" ht="34">
       <c r="A29" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>35</v>
@@ -1572,15 +1465,11 @@
       <c r="F29" s="18">
         <v>34</v>
       </c>
-      <c r="G29" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34">
+    <row r="30" spans="1:7" ht="34">
       <c r="A30" s="15" t="s">
         <v>103</v>
       </c>
@@ -1597,15 +1486,11 @@
       <c r="F30" s="18">
         <v>27</v>
       </c>
-      <c r="G30" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="34">
+      <c r="G30" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34">
       <c r="A31" s="15" t="s">
         <v>103</v>
       </c>
@@ -1622,15 +1507,11 @@
       <c r="F31" s="18">
         <v>24</v>
       </c>
-      <c r="G31" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="34">
+      <c r="G31" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34">
       <c r="A32" s="15" t="s">
         <v>103</v>
       </c>
@@ -1647,15 +1528,11 @@
       <c r="F32" s="18">
         <v>25</v>
       </c>
-      <c r="G32" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="34">
+      <c r="G32" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34">
       <c r="A33" s="15" t="s">
         <v>103</v>
       </c>
@@ -1672,15 +1549,11 @@
       <c r="F33" s="18">
         <v>23</v>
       </c>
-      <c r="G33" s="16">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="68">
+      <c r="G33" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="68">
       <c r="A34" s="15" t="s">
         <v>105</v>
       </c>
@@ -1699,14 +1572,11 @@
       <c r="F34" s="18">
         <v>10</v>
       </c>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="68">
+    <row r="35" spans="1:7" ht="68">
       <c r="A35" s="15" t="s">
         <v>103</v>
       </c>
@@ -1725,23 +1595,19 @@
       <c r="F35" s="18">
         <v>4</v>
       </c>
-      <c r="G35" s="16">
-        <v>1</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="G35" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
     <sortCondition ref="B2:B35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/PredictorScreeningTable.xlsx
+++ b/Documents/PredictorScreeningTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1946C8F3-6E3C-084B-92DE-38A87D3D649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E9889-E6A4-CA4F-970E-3FF0CDF95A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19280" yWindow="-4180" windowWidth="16400" windowHeight="18880" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,9 +355,6 @@
     <t>Aspen is expected grow better on soils with high organic matter content (Perala 1990)</t>
   </si>
   <si>
-    <t>SWC</t>
-  </si>
-  <si>
     <t>saturated water content (m3/m3)</t>
   </si>
   <si>
@@ -379,13 +376,16 @@
     <t>OM*</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
     <t>soil pH</t>
   </si>
   <si>
     <t xml:space="preserve">High soil pH may decrease the availability of nutrients and limit aspen growth (Zhang et al. 2013). </t>
+  </si>
+  <si>
+    <t>SWC*</t>
+  </si>
+  <si>
+    <t>pH*</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1478,18 +1478,18 @@
     </row>
     <row r="3" spans="1:3" ht="68">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>61</v>
@@ -1550,12 +1550,12 @@
         <v>71</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>103</v>
@@ -1566,24 +1566,24 @@
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" customHeight="1">

--- a/Documents/PredictorScreeningTable.xlsx
+++ b/Documents/PredictorScreeningTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/RESEARCH/Analyses/AspenHabitat/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E9889-E6A4-CA4F-970E-3FF0CDF95A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C521862E-6EB1-0D40-9C91-8908E3007958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
+    <workbookView xWindow="23040" yWindow="700" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
   <si>
     <t>Variable</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Tave_wt</t>
-  </si>
-  <si>
-    <t>Variable importance</t>
   </si>
   <si>
     <t>mean coldest month temperature (°C)</t>
@@ -280,18 +277,12 @@
     <t xml:space="preserve">Evenly distributed precipitation (intermediate PRATIO) may promote aspen by limiting seasonal  moisture stress (Rehfeltd et al. 2009) </t>
   </si>
   <si>
-    <t>growing season precipitation to degree day ratio: (GSP/DD5)</t>
-  </si>
-  <si>
     <t>Greater precipitaiton during the growing season may alleviate summer moisture stresss (Worral et al. 2013).</t>
   </si>
   <si>
     <t>Fast-growing, short-lived species such as aspen typiclaly have high water demand (Ireland et al. 2014). Thus high ADI has been linked with lower climate suitability for aspen (Rehfeldt et al. 2009, 2015).</t>
   </si>
   <si>
-    <t>Seasonal moisture stress may be lower in locations with greater growning season precipitaiton and shorter a growing season (i.e., high GSPDD5) (Rehfeldt et al. 2009).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower relative humidity leads to greater water loss via transpiration. To limit this loss, trees may close their stomata and thereby limiting photosynthesis. </t>
   </si>
   <si>
@@ -346,9 +337,6 @@
     <t>topographic position index</t>
   </si>
   <si>
-    <t xml:space="preserve">Aspen is expected grow better in valley bottoms (low TPI) and on benches (moderate TPI) than steep slopes (high TPI), where soil water content may be lower (Jones and DeByle 1985) We calculated TPI using nioeighborhoods of 3 (TPI3) and 15 (TPI15), however we retained only TPI3 because of high correlation among the two indices. </t>
-  </si>
-  <si>
     <t>soil organic matter [log10(%)]</t>
   </si>
   <si>
@@ -373,25 +361,43 @@
     <t>GSP*</t>
   </si>
   <si>
-    <t>OM*</t>
-  </si>
-  <si>
     <t>soil pH</t>
   </si>
   <si>
     <t xml:space="preserve">High soil pH may decrease the availability of nutrients and limit aspen growth (Zhang et al. 2013). </t>
   </si>
   <si>
-    <t>SWC*</t>
-  </si>
-  <si>
     <t>pH*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspen is expected grow better in valley bottoms (low TPI) and on benches (moderate TPI) than steep slopes (high TPI), where soil water content may be lower (Jones and DeByle 1985) We calculated TPI using neighborhoods of 3 (TPI3) and 15 (TPI15), however we retained only TPI3 because of high correlation among the two indices. </t>
+  </si>
+  <si>
+    <t>growing season precipitation to degree day ratio: (GSP*DD5/1000)</t>
+  </si>
+  <si>
+    <t>Drop out loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Rehfeldt et al. 2009).</t>
+  </si>
+  <si>
+    <t>growing season precipitation  degree day ratio: (GSP*DD5/1000)</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>SWC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -445,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -479,9 +485,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,6 +502,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -558,7 +567,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -664,7 +673,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -806,7 +815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,15 +825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C5EC75-8A6B-F240-9538-D6820B489B90}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="10.83203125" style="20"/>
     <col min="4" max="4" width="10.83203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="35.5" style="8" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="7"/>
@@ -837,11 +846,11 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>39</v>
+      <c r="C1" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>2</v>
@@ -852,16 +861,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.48</v>
-      </c>
-      <c r="D2" s="14">
+        <v>75</v>
+      </c>
+      <c r="C2" s="20">
+        <v>15.6021855415503</v>
+      </c>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -869,33 +878,33 @@
         <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="D3" s="14">
+        <v>69</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1.5486089342303599</v>
+      </c>
+      <c r="D3" s="13">
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.36</v>
-      </c>
-      <c r="D4" s="14">
+        <v>54</v>
+      </c>
+      <c r="C4" s="20">
+        <v>2.4970067676434899</v>
+      </c>
+      <c r="D4" s="13">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="68">
@@ -903,16 +912,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="D5" s="14">
+        <v>61</v>
+      </c>
+      <c r="C5" s="20">
+        <v>10.6583981457586</v>
+      </c>
+      <c r="D5" s="13">
         <v>4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51">
@@ -920,16 +929,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="D6" s="14">
+        <v>111</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2.7764791492273799</v>
+      </c>
+      <c r="D6" s="13">
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51">
@@ -937,16 +946,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="D7" s="14">
+        <v>59</v>
+      </c>
+      <c r="C7" s="20">
+        <v>4.3943265463196397</v>
+      </c>
+      <c r="D7" s="13">
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51">
@@ -954,16 +963,16 @@
         <v>33</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.32</v>
-      </c>
-      <c r="D8" s="14">
+        <v>68</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2.6983998087789698</v>
+      </c>
+      <c r="D8" s="13">
         <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -971,16 +980,16 @@
         <v>21</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="D9" s="14">
+        <v>60</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1.7878780220583299</v>
+      </c>
+      <c r="D9" s="13">
         <v>8</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51">
@@ -988,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="14">
+        <v>40</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3.44869564276408</v>
+      </c>
+      <c r="D10" s="13">
         <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51">
@@ -1005,16 +1014,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="D11" s="14">
+        <v>46</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1.5080792248429999</v>
+      </c>
+      <c r="D11" s="13">
         <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
@@ -1022,16 +1031,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.45</v>
-      </c>
-      <c r="D12" s="14">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1.6904203760457599</v>
+      </c>
+      <c r="D12" s="13">
         <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
@@ -1039,16 +1048,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="14">
+        <v>51</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2.2977194497343598</v>
+      </c>
+      <c r="D13" s="13">
         <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="68">
@@ -1056,16 +1065,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="D14" s="14">
+        <v>64</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1.7135219934545101</v>
+      </c>
+      <c r="D14" s="13">
         <v>13</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
@@ -1073,16 +1082,16 @@
         <v>29</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="D15" s="14">
+        <v>65</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1.57811573424865</v>
+      </c>
+      <c r="D15" s="13">
         <v>14</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1">
@@ -1090,12 +1099,12 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.31</v>
-      </c>
-      <c r="D16" s="14">
+        <v>50</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1.76748947727927</v>
+      </c>
+      <c r="D16" s="13">
         <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1107,16 +1116,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.31</v>
-      </c>
-      <c r="D17" s="14">
+        <v>52</v>
+      </c>
+      <c r="C17" s="20">
+        <v>11.3910697036104</v>
+      </c>
+      <c r="D17" s="13">
         <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
@@ -1124,16 +1133,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D18" s="14">
+        <v>48</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3.3166839778818402</v>
+      </c>
+      <c r="D18" s="13">
         <v>17</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
@@ -1141,16 +1150,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D19" s="14">
+        <v>47</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1.38113998143257</v>
+      </c>
+      <c r="D19" s="13">
         <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34">
@@ -1158,16 +1167,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D20" s="14">
+        <v>67</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1.8517465522908101</v>
+      </c>
+      <c r="D20" s="13">
         <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34">
@@ -1175,16 +1184,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.24</v>
-      </c>
-      <c r="D21" s="14">
+        <v>39</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1.8613493524093101</v>
+      </c>
+      <c r="D21" s="13">
         <v>20</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34">
@@ -1192,16 +1201,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="D22" s="14">
+        <v>53</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1.6493918939881</v>
+      </c>
+      <c r="D22" s="13">
         <v>21</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34">
@@ -1211,14 +1220,14 @@
       <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="20">
+        <v>1.6249264309678999</v>
+      </c>
+      <c r="D23" s="13">
         <v>22</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34">
@@ -1226,16 +1235,16 @@
         <v>38</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="D24" s="14">
+        <v>45</v>
+      </c>
+      <c r="C24" s="20">
+        <v>3.1420399396382601</v>
+      </c>
+      <c r="D24" s="13">
         <v>23</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34">
@@ -1243,16 +1252,16 @@
         <v>36</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="D25" s="14">
+        <v>43</v>
+      </c>
+      <c r="C25" s="20">
+        <v>2.9613498336352002</v>
+      </c>
+      <c r="D25" s="13">
         <v>24</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34">
@@ -1260,16 +1269,16 @@
         <v>37</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="D26" s="14">
+        <v>44</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1.5948247810457801</v>
+      </c>
+      <c r="D26" s="13">
         <v>25</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34">
@@ -1277,16 +1286,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="D27" s="14">
+        <v>58</v>
+      </c>
+      <c r="C27" s="20">
+        <v>2.1240711942899999</v>
+      </c>
+      <c r="D27" s="13">
         <v>26</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34">
@@ -1294,16 +1303,16 @@
         <v>35</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.21</v>
-      </c>
-      <c r="D28" s="14">
+        <v>42</v>
+      </c>
+      <c r="C28" s="20">
+        <v>2.87660390336637</v>
+      </c>
+      <c r="D28" s="13">
         <v>27</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34">
@@ -1311,16 +1320,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D29" s="14">
+        <v>56</v>
+      </c>
+      <c r="C29" s="20">
+        <v>15.327334652578999</v>
+      </c>
+      <c r="D29" s="13">
         <v>28</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34">
@@ -1328,16 +1337,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="14">
+        <v>63</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1.24164216167994</v>
+      </c>
+      <c r="D30" s="13">
         <v>29</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34">
@@ -1345,16 +1354,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="D31" s="14">
+        <v>57</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1.74446366186862</v>
+      </c>
+      <c r="D31" s="13">
         <v>30</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34">
@@ -1362,16 +1371,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="D32" s="14">
+        <v>62</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1.71460405096535</v>
+      </c>
+      <c r="D32" s="13">
         <v>31</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34">
@@ -1379,16 +1388,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="D33" s="14">
+        <v>66</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1.84969232117055</v>
+      </c>
+      <c r="D33" s="13">
         <v>32</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34">
@@ -1396,16 +1405,16 @@
         <v>17</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="D34" s="14">
+        <v>55</v>
+      </c>
+      <c r="C34" s="20">
+        <v>1.79822290423413</v>
+      </c>
+      <c r="D34" s="13">
         <v>33</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="34">
@@ -1413,12 +1422,12 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="D35" s="14">
+        <v>41</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1.5603963877920799</v>
+      </c>
+      <c r="D35" s="13">
         <v>34</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -1427,7 +1436,9 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="20">
+        <v>1.77016090946546</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
     </row>
@@ -1444,14 +1455,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="37.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17">
@@ -1461,8 +1472,8 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>73</v>
+      <c r="C1" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="68">
@@ -1470,43 +1481,43 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>108</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="68">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>83</v>
+        <v>114</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -1514,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51">
@@ -1525,10 +1536,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51">
@@ -1536,76 +1547,76 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>86</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>107</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PredictorScreeningTable.xlsx
+++ b/Documents/PredictorScreeningTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C521862E-6EB1-0D40-9C91-8908E3007958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD351892-038C-1643-8D4C-34B112D33FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="700" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>Drop out loss</t>
   </si>
   <si>
-    <t xml:space="preserve"> (Rehfeldt et al. 2009).</t>
-  </si>
-  <si>
     <t>growing season precipitation  degree day ratio: (GSP*DD5/1000)</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
   </si>
   <si>
     <t>SWC</t>
+  </si>
+  <si>
+    <t>Plant productivity is higher in areas with warmer temperatures and greater preciptiation during the growing season  (Rehfeldt et al. 2009).</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1509,15 +1509,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34">
+    <row r="5" spans="1:3" ht="51">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -1566,7 +1566,7 @@
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>99</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>101</v>

--- a/Documents/PredictorScreeningTable.xlsx
+++ b/Documents/PredictorScreeningTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahhart/Library/CloudStorage/GoogleDrive-sarahjanehart13@gmail.com/My Drive/JOB/RESEARCH/Analyses/AspenHabitat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD351892-038C-1643-8D4C-34B112D33FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE243E10-719D-1B40-B8FD-23B58AACFC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{EC5E61FB-4842-014B-8360-6D6CF19886B2}"/>
   </bookViews>
@@ -277,21 +277,12 @@
     <t xml:space="preserve">Evenly distributed precipitation (intermediate PRATIO) may promote aspen by limiting seasonal  moisture stress (Rehfeltd et al. 2009) </t>
   </si>
   <si>
-    <t>Greater precipitaiton during the growing season may alleviate summer moisture stresss (Worral et al. 2013).</t>
-  </si>
-  <si>
-    <t>Fast-growing, short-lived species such as aspen typiclaly have high water demand (Ireland et al. 2014). Thus high ADI has been linked with lower climate suitability for aspen (Rehfeldt et al. 2009, 2015).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower relative humidity leads to greater water loss via transpiration. To limit this loss, trees may close their stomata and thereby limiting photosynthesis. </t>
   </si>
   <si>
     <t>Greater HLI may inhibit aspen, particularly at lower elevations and latitudes (Jones et al. 1985).</t>
   </si>
   <si>
-    <t>Extreme seaonal varaition in temperature may present physiological challenges to aspen (Worrall et al. 2013; Rehfeldt et al. 2015)</t>
-  </si>
-  <si>
     <t>retain - identified as important predictor by Rehfeldt et al. (2009) and (2015).</t>
   </si>
   <si>
@@ -352,9 +343,6 @@
     <t>High clay content may inhibit aspen growth (Jones and DeByle 1985)</t>
   </si>
   <si>
-    <t xml:space="preserve">To prevent early devleopment of new buds that may lead to injury, aspen phenology is requires a chilling period. Insufficient chilling periods may delay budburst (Man et al. 2017). </t>
-  </si>
-  <si>
     <t>DD_0*</t>
   </si>
   <si>
@@ -388,7 +376,19 @@
     <t>SWC</t>
   </si>
   <si>
-    <t>Plant productivity is higher in areas with warmer temperatures and greater preciptiation during the growing season  (Rehfeldt et al. 2009).</t>
+    <t>Fast-growing, short-lived species such as aspen typically have high water demand (Ireland et al. 2014). Thus high ADI has been linked with lower climate suitability for aspen (Rehfeldt et al. 2009, 2015).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To prevent early development of new buds that may lead to injury, aspen phenology is requires a chilling period. Insufficient chilling periods may delay budburst (Man et al. 2017). </t>
+  </si>
+  <si>
+    <t>Greater precipitation during the growing season may alleviate summer moisture stress (Worral et al. 2013).</t>
+  </si>
+  <si>
+    <t>Plant productivity is higher in areas with warmer temperatures and greater precipitation during the growing season  (Rehfeldt et al. 2009).</t>
+  </si>
+  <si>
+    <t>Extreme seasonal variation in temperature may present physiological challenges to aspen (Worrall et al. 2013; Rehfeldt et al. 2015)</t>
   </si>
 </sst>
 </file>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>2</v>
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34">
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="66" customHeight="1">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="68">
@@ -921,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="51">
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C6" s="20">
         <v>2.7764791492273799</v>
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51">
@@ -955,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51">
@@ -972,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51">
@@ -1006,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51">
@@ -1023,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34">
@@ -1040,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="68">
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34">
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1">
@@ -1125,7 +1125,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
@@ -1142,7 +1142,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34">
@@ -1159,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34">
@@ -1176,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34">
@@ -1193,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34">
@@ -1227,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34">
@@ -1244,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34">
@@ -1261,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34">
@@ -1295,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34">
@@ -1312,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34">
@@ -1329,7 +1329,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34">
@@ -1363,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34">
@@ -1380,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="34">
@@ -1397,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="34">
@@ -1414,7 +1414,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="34">
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1484,29 +1484,29 @@
         <v>76</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="68">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="51">
@@ -1514,10 +1514,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
@@ -1539,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51">
@@ -1550,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
@@ -1561,40 +1561,40 @@
         <v>70</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" customHeight="1">
@@ -1605,18 +1605,18 @@
         <v>71</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
